--- a/RequestITMeetings.xlsx
+++ b/RequestITMeetings.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubha/Documents/csci-3308-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Meeting #</t>
   </si>
@@ -63,12 +69,18 @@
   </si>
   <si>
     <t>Backend considerations / milestone / Trello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss and build database for project, worked on ER diagram, SQL scripts, and other submissions </t>
+  </si>
+  <si>
+    <t>April 5th</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,15 +427,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="81.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,7 +473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -474,7 +490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -489,6 +505,23 @@
       </c>
       <c r="E4" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/RequestITMeetings.xlsx
+++ b/RequestITMeetings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Meeting #</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>April 5th</t>
+  </si>
+  <si>
+    <t>April 18th</t>
+  </si>
+  <si>
+    <t>Talk about testing methods and features to test for our product using unit testing and CI testing. Figure out final details about product.</t>
   </si>
 </sst>
 </file>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -524,6 +530,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RequestITMeetings.xlsx
+++ b/RequestITMeetings.xlsx
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,6 +547,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
